--- a/results/RIMP9_260212-1442/ReqPowDATA.xlsx
+++ b/results/RIMP9_260212-1442/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123.8631013201834</v>
+        <v>54.03401509489357</v>
       </c>
       <c r="C2" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="D2" t="n">
-        <v>2340.647315922128</v>
+        <v>1029.499570351299</v>
       </c>
       <c r="E2" t="n">
-        <v>2477.262026403667</v>
+        <v>1080.680301897871</v>
       </c>
       <c r="F2" t="n">
-        <v>2477.262026403667</v>
+        <v>1080.680301897871</v>
       </c>
       <c r="G2" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="H2" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="I2" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="J2" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="K2" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="L2" t="n">
-        <v>2477.262026403667</v>
+        <v>1080.680301897871</v>
       </c>
       <c r="M2" t="n">
-        <v>2477.262026403667</v>
+        <v>1080.680301897871</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="Q2" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="R2" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="S2" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="T2" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="U2" t="n">
-        <v>123.8631013201834</v>
+        <v>54.03401509489357</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.8631013201834</v>
+        <v>54.03401509489357</v>
       </c>
       <c r="C3" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="D3" t="n">
-        <v>1919.444965787053</v>
+        <v>835.4069702874276</v>
       </c>
       <c r="E3" t="n">
-        <v>2056.059676268592</v>
+        <v>886.5877018339996</v>
       </c>
       <c r="F3" t="n">
-        <v>2056.059676268592</v>
+        <v>886.5877018339996</v>
       </c>
       <c r="G3" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="H3" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="I3" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="J3" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="K3" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="L3" t="n">
-        <v>2056.059676268592</v>
+        <v>886.5877018339996</v>
       </c>
       <c r="M3" t="n">
-        <v>2056.059676268592</v>
+        <v>886.5877018339996</v>
       </c>
       <c r="N3" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="O3" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="P3" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="Q3" t="n">
-        <v>1989.154429772199</v>
+        <v>758.212204957865</v>
       </c>
       <c r="R3" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="S3" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="T3" t="n">
-        <v>247.7262026403668</v>
+        <v>108.0680301897871</v>
       </c>
       <c r="U3" t="n">
-        <v>123.8631013201834</v>
+        <v>54.03401509489357</v>
       </c>
     </row>
     <row r="4">
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>421.2023501350752</v>
+        <v>194.0926000638717</v>
       </c>
       <c r="E4" t="n">
-        <v>421.2023501350752</v>
+        <v>194.0926000638717</v>
       </c>
       <c r="F4" t="n">
-        <v>421.2023501350752</v>
+        <v>194.0926000638717</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>421.2023501350752</v>
+        <v>194.0926000638717</v>
       </c>
       <c r="M4" t="n">
-        <v>421.2023501350752</v>
+        <v>194.0926000638717</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
